--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1331959.179305773</v>
+        <v>1398568.850363555</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6227837.312904672</v>
+        <v>6797832.710874229</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>61.37033924555244</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>90.61141342516279</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.994099727528077</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>56.63677140718717</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>166.4470107770821</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>214.494720579135</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>157.8008386360904</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.9735834668218</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>173.5276703207736</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>242.8243655528862</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>133.9986524434723</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,13 +1372,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>48.98801396057928</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430791</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>50.29424103733323</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.92647013570319</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>278.4546196907166</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>111.7936689725563</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>105.5504749248141</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>81.49380289235384</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>75.86622810093208</v>
+        <v>257.75015693767</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045956</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>10.04027365719926</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>32.98066327132544</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>50.29424103733289</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3667,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>23.92593778768311</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>60.78001549303654</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>225.401291724708</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1472970361158</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,13 +3982,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>378.2611559012059</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973306745</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>52.51170991984834</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153427</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.040072665448</v>
+        <v>550.1887779922017</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.938003889275</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.947762227101</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.64701815018</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.544958769894</v>
+        <v>980.7340681370521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.299239109952</v>
+        <v>976.4883484771095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>962.7013733912472</v>
+        <v>613.8890703687</v>
       </c>
       <c r="C4" t="n">
-        <v>790.1396618744722</v>
+        <v>613.8890703687</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>613.8890703687</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>2186.313330005992</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1899.357821876422</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1627.331417462714</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>1381.939662796126</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>1154.519992110234</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.45039114996</v>
+        <v>603.8134145959701</v>
       </c>
       <c r="C5" t="n">
-        <v>1161.348322373787</v>
+        <v>569.7113458197975</v>
       </c>
       <c r="D5" t="n">
-        <v>725.4385375482318</v>
+        <v>537.8419650346461</v>
       </c>
       <c r="E5" t="n">
-        <v>695.7041967469311</v>
+        <v>508.1076242333453</v>
       </c>
       <c r="F5" t="n">
-        <v>671.8771711965429</v>
+        <v>339.979330519121</v>
       </c>
       <c r="G5" t="n">
-        <v>270.4793398198068</v>
+        <v>339.979330519121</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233727</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>557.7649106726495</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717431</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762212</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720807</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2262.397026790881</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>2262.397026790881</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.178548755904</v>
+        <v>1857.541572201914</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.036085335214</v>
+        <v>1438.399108781225</v>
       </c>
       <c r="Y5" t="n">
-        <v>1621.749961634868</v>
+        <v>1030.112985080878</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174124</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326481</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993489</v>
       </c>
       <c r="J6" t="n">
-        <v>277.7880908295411</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="K6" t="n">
-        <v>938.6281453713194</v>
+        <v>972.3985859291651</v>
       </c>
       <c r="L6" t="n">
-        <v>1599.468199913098</v>
+        <v>972.3985859291651</v>
       </c>
       <c r="M6" t="n">
-        <v>1599.468199913098</v>
+        <v>972.3985859291651</v>
       </c>
       <c r="N6" t="n">
-        <v>1599.468199913098</v>
+        <v>972.3985859291651</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>972.3985859291651</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>784.8543544130353</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>784.8543544130353</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>625.4595679119338</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>455.7015641626712</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>278.9945101244274</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244274</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541672</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253027</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932638</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255764</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413408</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.91966063919</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609531</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179236</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.960139477232</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.080693055687</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1816.647692308793</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1529.692184179223</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1257.665779765515</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1012.274025098927</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.45937714051</v>
+        <v>784.8543544130353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.295315593938</v>
+        <v>1270.561784452094</v>
       </c>
       <c r="C8" t="n">
-        <v>718.1528427773615</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D8" t="n">
-        <v>686.2834619922101</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E8" t="n">
-        <v>656.5491211909093</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>228.6816916001171</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>228.6816916001171</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.594886078846</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>714.2412710704069</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1375.081325612185</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1375.081325612185</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1224.004657565513</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1224.004657565513</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1224.004657565513</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5387406219828</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5387406219828</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219828</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219828</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022717</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.668109022717</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>2463.445806339734</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2463.445806339734</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>2058.590351750768</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.590351750768</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1650.304228050421</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677761</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677761</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>366.8902486565483</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.22882019347</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>843.6671086766952</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>677.7891158782179</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1680.858864264937</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1435.467109598349</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1208.047438912457</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>922.1363020641465</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>483.9938292475699</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>483.9938292475699</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.102936374606</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374606</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.31998283888</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2547.097680155897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2184.480730089724</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.625275500757</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1360.482812080068</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1348.435872549054</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>484.063026750888</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1178.627222503511</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M15" t="n">
-        <v>1178.627222503511</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N15" t="n">
-        <v>1178.627222503511</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O15" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>995.2823859590335</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>822.7206744422584</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>656.8426816437811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>487.0846778945184</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>310.3776238562746</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>144.7863488821023</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.547079777621</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.520675363912</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1414.520675363912</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.101004678021</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
         <v>1765.500601749588</v>
@@ -5653,19 +5655,19 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>526.2700682195393</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5120644702766</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127542</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>809.5937635959791</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>809.5937635959791</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>639.8357598467164</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>463.1287058084727</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>297.5374308343003</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5914,46 +5916,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745697</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008511</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127542</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3572.656769371182</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3572.656769371182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4400.966644204577</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2455.944287558408</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2177.511286811513</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6226,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6300,10 +6302,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1753.595119132073</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1481.568714718365</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>454.7008598460233</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>277.9938058077795</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>112.4025308336072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6935,49 +6937,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -6993,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7017,25 +7019,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>275.4768158645722</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>135.5746415549467</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7132,13 +7134,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.379615852385</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,13 +7177,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7199,13 +7201,13 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>303.5569696238763</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>303.5569696238763</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>163.6547953142509</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1653.083556697398</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.941083880822</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>779.0312990552661</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>345.2565542135613</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>345.2565542135613</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096954</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862318</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1880.50947861494</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1880.50947861494</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>1880.50947861494</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O41" t="n">
-        <v>2259.821196880284</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880284</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838879</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838879</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022716</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2502.600881895755</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.378579212772</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>1880.761629146598</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>1653.083556697398</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1653.083556697398</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1653.083556697398</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480703</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847126</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.7513946312659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582196</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743812</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056512</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.31259353607</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1101.31259353607</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1101.31259353607</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486127</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278335</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>450.2797981659001</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>450.2797981659001</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214674</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1566.878834064658</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1128.736361248081</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1128.736361248081</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>746.6543855902975</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677759</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>750.6905954094001</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094001</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374605</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374605</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374605</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127227</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085822</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838879</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838879</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838879</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838879</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2401.464528249912</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2401.464528249912</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1993.178404549566</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480703</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847126</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.7513946312659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582196</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743812</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056512</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677759</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>380.6847246229899</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486127</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278335</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>969.5932852944866</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C46" t="n">
-        <v>797.0315737777115</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D46" t="n">
-        <v>631.1535809792342</v>
+        <v>842.8792965674047</v>
       </c>
       <c r="E46" t="n">
-        <v>461.3955772299715</v>
+        <v>673.1212928181419</v>
       </c>
       <c r="F46" t="n">
-        <v>284.6885231917278</v>
+        <v>496.4142387798981</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057257</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961003</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214674</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2193.205241909231</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>1906.249733779661</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W46" t="n">
-        <v>1634.223329365953</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.831574699366</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y46" t="n">
-        <v>1161.411904013474</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611553</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368466</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>577.1153547606241</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671715</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>651.9316575406114</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.57999570972</v>
+        <v>946.7571087441356</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>313.9028777775462</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932195</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869802</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.57999570972</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9182,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9249,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>407.423047230348</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>469.2069973599082</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,10 +9889,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>387.2095039972201</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>239.9071053991105</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1133.488385918381</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629737</v>
+        <v>606.9002735643703</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097199</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>505.9401914193702</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>651.9316575406111</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097197</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>380.4489834327085</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.2767923276399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5.631333357557253</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.42554389793625</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>32.95267764171517</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>208.2197249473418</v>
+        <v>26.33579611060384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>128.46287890933</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.79268646174597</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>219.0118993322385</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>26.99333424003488</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>175.405608318369</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.07191583437672</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>51.17584149208182</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>223.1369608195774</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>111.423652304579</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>574502.3189344561</v>
+        <v>559536.5164652553</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>574502.3189344561</v>
+        <v>572218.8388885307</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393365.5663847392</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393365.5663847391</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594319.3836121788</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594319.3836121787</v>
+        <v>594319.3836121788</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594319.3836121786</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393365.566384739</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393365.5663847391</v>
+        <v>594319.383612179</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
+        <v>415514.1729150667</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
-      <c r="D2" t="n">
-        <v>415514.1729150665</v>
-      </c>
       <c r="E2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26344,16 +26346,16 @@
         <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="N2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583607</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583606</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501692</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998204</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045608</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877313</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621718</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340631</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595584</v>
+        <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595584</v>
+        <v>171472.7657924758</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562435</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562434</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26444,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81439.57146904277</v>
+      </c>
+      <c r="P4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53902.87451562434</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53902.87451562434</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800272</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915096</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915096</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47661.1384902945</v>
+        <v>7937.11127626754</v>
       </c>
       <c r="C6" t="n">
-        <v>176038.5600937505</v>
+        <v>105497.4254195712</v>
       </c>
       <c r="D6" t="n">
-        <v>176038.5600937504</v>
+        <v>164510.9645437684</v>
       </c>
       <c r="E6" t="n">
-        <v>163523.6009031294</v>
+        <v>66801.70841056283</v>
       </c>
       <c r="F6" t="n">
-        <v>173694.5975035855</v>
+        <v>249156.8176316128</v>
       </c>
       <c r="G6" t="n">
-        <v>91097.34068550332</v>
+        <v>249156.8176316126</v>
       </c>
       <c r="H6" t="n">
-        <v>249156.8176316126</v>
+        <v>249156.8176316127</v>
       </c>
       <c r="I6" t="n">
         <v>249156.8176316126</v>
       </c>
       <c r="J6" t="n">
-        <v>74505.46891390654</v>
+        <v>138142.3522866225</v>
       </c>
       <c r="K6" t="n">
-        <v>249156.8176316126</v>
+        <v>196110.9629928395</v>
       </c>
       <c r="L6" t="n">
-        <v>249156.8176316126</v>
+        <v>239764.515904991</v>
       </c>
       <c r="M6" t="n">
-        <v>240667.735928272</v>
+        <v>96956.64669362496</v>
       </c>
       <c r="N6" t="n">
-        <v>249156.8176316126</v>
+        <v>249156.8176316127</v>
       </c>
       <c r="O6" t="n">
-        <v>173694.5975035854</v>
+        <v>249156.8176316128</v>
       </c>
       <c r="P6" t="n">
-        <v>173694.5975035853</v>
+        <v>249156.8176316128</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097198</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097198</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186308</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750253</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186286</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186308</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750253</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>370.1803477317475</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>324.3396253613196</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>159.066323984242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>219.0118993322386</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>257.1417445178022</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>71.74413243208085</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.418374234402137</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>112.7111826904423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>13.80571410326709</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28986,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611553</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368466</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>577.1153547606241</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671715</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35191,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>651.9316575406114</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.57999570972</v>
+        <v>946.7571087441356</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>313.9028777775462</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932195</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869802</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.57999570972</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>407.423047230348</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36284,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080451</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>469.2069973599082</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36607,10 +36609,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>387.2095039972201</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>239.9071053991105</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1133.488385918381</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629737</v>
+        <v>606.9002735643703</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097199</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>505.9401914193702</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>651.9316575406111</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097197</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1398568.850363555</v>
+        <v>1398043.667994522</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6797832.710874229</v>
+        <v>6797832.710874227</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>320.0331481255876</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>90.61141342516279</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.994099727528077</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>73.0750447229214</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>166.4470107770821</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>70.10632792789346</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8008386360904</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>193.6215014527087</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>242.8243655528862</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1350,10 +1350,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430791</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>79.865526014312</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>67.37282263167097</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1818,16 +1818,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6379250432762</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.3431845617044</v>
+        <v>22.2853439284763</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>257.75015693767</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2958,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872123</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556922</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3429,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>32.98066327132544</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314231</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>23.92593778768311</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309559</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973306745</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,16 +4191,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706842</v>
       </c>
       <c r="X46" t="n">
-        <v>131.5141848153427</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>442.640221925911</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
         <v>87.50503495329731</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>980.7340681370521</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771095</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8890703687</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C4" t="n">
-        <v>613.8890703687</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D4" t="n">
-        <v>613.8890703687</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1218.24943846907</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>931.2939303395003</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>931.2939303395003</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.8134145959701</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>569.7113458197975</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>537.8419650346461</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>508.1076242333453</v>
+        <v>74.6762015127253</v>
       </c>
       <c r="F5" t="n">
-        <v>339.979330519121</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="G5" t="n">
-        <v>339.979330519121</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233727</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947728</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423952</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.6870740423952</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6870740423952</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>485.6870740423952</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726495</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717431</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762212</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720807</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473864</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473864</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473864</v>
+        <v>2450.804856819417</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.397026790881</v>
+        <v>2191.582554136434</v>
       </c>
       <c r="V5" t="n">
-        <v>2262.397026790881</v>
+        <v>1828.965604070261</v>
       </c>
       <c r="W5" t="n">
-        <v>1857.541572201914</v>
+        <v>1828.150553521698</v>
       </c>
       <c r="X5" t="n">
-        <v>1438.399108781225</v>
+        <v>1813.048494141413</v>
       </c>
       <c r="Y5" t="n">
-        <v>1030.112985080878</v>
+        <v>1404.762370441066</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807701</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174124</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639656</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909193</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070809</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326481</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947728</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993489</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161472</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291651</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>972.3985859291651</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>972.3985859291651</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>972.3985859291651</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>972.3985859291651</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813124</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605332</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.8543544130353</v>
+        <v>823.9970979175607</v>
       </c>
       <c r="C7" t="n">
-        <v>784.8543544130353</v>
+        <v>651.4353864007857</v>
       </c>
       <c r="D7" t="n">
-        <v>625.4595679119338</v>
+        <v>485.5573936023083</v>
       </c>
       <c r="E7" t="n">
-        <v>455.7015641626712</v>
+        <v>315.7993898530456</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244274</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244274</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148019</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947728</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541672</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253027</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932638</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255764</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413408</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063919</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609531</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473864</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179236</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477232</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055687</v>
+        <v>2326.0420552792</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308793</v>
+        <v>2047.609054532305</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179223</v>
+        <v>1760.653546402736</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765515</v>
+        <v>1488.627141989027</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098927</v>
+        <v>1243.23538732244</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130353</v>
+        <v>1015.815716636548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.561784452094</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.459715675921</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>800.5499308503654</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2121.064588566196</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2121.064588566196</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.249538017633</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1701.107074596944</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.820950896597</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4998,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707797</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4397.389162827331</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354689</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066045</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745656</v>
       </c>
       <c r="M13" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O13" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
         <v>2718.920450173579</v>
@@ -5229,22 +5229,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5281,16 +5281,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2443.348304557486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
         <v>3569.079287993933</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1083.781082102096</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>911.2193705853207</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>745.3413777868434</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>575.5833740375806</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>398.8763199993368</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5445,43 +5445,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T16" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U16" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303132</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.019371506975</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1275.599700821083</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957664</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789913</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>611.138520780514</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>441.3805170312513</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>264.6734629930074</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5673,52 +5673,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354685</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066041</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580941</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500645</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5943,19 +5943,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1753.595119132073</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1481.568714718365</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1236.176960051778</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1008.757289365886</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6660,13 +6660,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6946,43 +6946,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993932</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993932</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>617.7751448769883</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>441.0680908387445</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>275.4768158645722</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>135.5746415549467</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1035.728611060351</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>863.1668995435758</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>697.2889067450985</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
         <v>673.1212928181459</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1227.547229779338</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7411,28 +7411,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
         <v>5113.042013538981</v>
@@ -7441,22 +7441,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7502,10 +7502,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882657</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365882</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674047</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181419</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387798981</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057257</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961003</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7815,43 +7815,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V46" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="W46" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.557290287536</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601644</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611553</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684659</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368466</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684659</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671715</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>946.7571087441356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9184,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918381</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,13 +11068,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>96.56253959275963</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>122.4480280049976</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>141.6500182959543</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>26.33579611060384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>54.79268646174597</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>139.5921776627294</v>
       </c>
       <c r="X46" t="n">
-        <v>111.423652304579</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>572218.8388885307</v>
+        <v>572218.8388885306</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594319.3836121787</v>
+        <v>594319.3836121786</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594319.3836121787</v>
+        <v>594319.3836121786</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594319.3836121787</v>
+        <v>594319.3836121786</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594319.3836121788</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594319.383612179</v>
+        <v>594319.3836121786</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064478</v>
       </c>
       <c r="G2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26346,16 +26346,16 @@
         <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
+        <v>408314.627706448</v>
+      </c>
+      <c r="N2" t="n">
         <v>408314.6277064479</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>408314.627706448</v>
       </c>
-      <c r="O2" t="n">
-        <v>408314.6277064481</v>
-      </c>
       <c r="P2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.6277064478</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501692</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998204</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210499</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877313</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726621718</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924758</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595585</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26450,16 +26450,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="O4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="P4" t="n">
         <v>81439.57146904277</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800272</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,7 +26502,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7937.11127626754</v>
+        <v>7937.111276267511</v>
       </c>
       <c r="C6" t="n">
-        <v>105497.4254195712</v>
+        <v>105497.4254195716</v>
       </c>
       <c r="D6" t="n">
-        <v>164510.9645437684</v>
+        <v>164510.9645437678</v>
       </c>
       <c r="E6" t="n">
-        <v>66801.70841056283</v>
+        <v>66778.48407118025</v>
       </c>
       <c r="F6" t="n">
-        <v>249156.8176316128</v>
+        <v>249133.5932922299</v>
       </c>
       <c r="G6" t="n">
-        <v>249156.8176316126</v>
+        <v>249133.59329223</v>
       </c>
       <c r="H6" t="n">
-        <v>249156.8176316127</v>
+        <v>249133.59329223</v>
       </c>
       <c r="I6" t="n">
-        <v>249156.8176316126</v>
+        <v>249133.59329223</v>
       </c>
       <c r="J6" t="n">
-        <v>138142.3522866225</v>
+        <v>138119.1279472398</v>
       </c>
       <c r="K6" t="n">
-        <v>196110.9629928395</v>
+        <v>196087.7386534575</v>
       </c>
       <c r="L6" t="n">
-        <v>239764.515904991</v>
+        <v>239741.2915656077</v>
       </c>
       <c r="M6" t="n">
-        <v>96956.64669362496</v>
+        <v>96933.42235424227</v>
       </c>
       <c r="N6" t="n">
-        <v>249156.8176316127</v>
+        <v>249133.59329223</v>
       </c>
       <c r="O6" t="n">
-        <v>249156.8176316128</v>
+        <v>249133.59329223</v>
       </c>
       <c r="P6" t="n">
-        <v>249156.8176316128</v>
+        <v>249133.5932922299</v>
       </c>
     </row>
   </sheetData>
@@ -26792,13 +26792,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684659</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483616</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939104</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483616</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939104</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483616</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939104</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>113.7278999628234</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>324.3396253613196</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>159.066323984242</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>202.5736260165043</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>257.1417445178022</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>147.7602269277983</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.418374234402137</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>49.79915050462057</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>13.80571410326709</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-5.980973060365936e-13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-4.745772102246885e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-9.7515865114662e-13</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.108936697258694e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-3.677973379241337e-12</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611553</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684659</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368466</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684659</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094343</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671715</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>946.7571087441356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908007</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35588,7 +35588,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645541</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743907967</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918381</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.125118364555</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
